--- a/LH_REQUIREMENTS/LH-SIQ.xlsx
+++ b/LH_REQUIREMENTS/LH-SIQ.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA30A3-FF23-4DDF-9469-7A6684EE1781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACD12E-3622-4B84-918C-08D77052F4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="SIQ" sheetId="1" r:id="rId1"/>
+    <sheet name="Version history" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Table2">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -158,13 +162,64 @@
   </si>
   <si>
     <t xml:space="preserve"> Should the admin features include removing articles, videos, and audio files?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>a text showing all the password requirements to the user</t>
+  </si>
+  <si>
+    <t>no comment</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4 categories</t>
+  </si>
+  <si>
+    <t>100MB</t>
+  </si>
+  <si>
+    <t>Version number</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Created SIQ sheet</t>
+  </si>
+  <si>
+    <t>Mahmoud Radi</t>
+  </si>
+  <si>
+    <t>Updated the SIQ sheet according to the review comments</t>
+  </si>
+  <si>
+    <t>Made assumptions on the Question answers</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -188,6 +243,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -346,26 +408,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -385,9 +432,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -400,9 +444,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -410,9 +451,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -425,11 +463,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,6 +537,18 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Question"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Answer"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet3-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9563CCC3-851B-453C-933D-17087BDF14C3}" name="Table16" displayName="Table16" ref="A1:D19">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C89EB1EC-4C2E-4603-9648-9FD01BCB32E7}" name="Version number"/>
+    <tableColumn id="2" xr3:uid="{A294B132-8A15-431C-AEB5-4D6FD0930374}" name="Author"/>
+    <tableColumn id="4" xr3:uid="{3E3C5CEB-EBA5-4F13-AEF1-F4BAEA5407AE}" name="Updated section"/>
+    <tableColumn id="5" xr3:uid="{108D32EB-91AA-4ED5-8D1C-98D9C6F8BE4E}" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="Sheet3-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,9 +757,9 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -706,7 +768,7 @@
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="99.88671875" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="64.109375" customWidth="1"/>
+    <col min="5" max="5" width="71.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,7 +790,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -737,24 +799,32 @@
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -763,25 +833,33 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -790,167 +868,219 @@
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -966,4 +1096,181 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB6AEB-FB0F-423F-B9F5-E6539C732705}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="99.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="64.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="22">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="22">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="22">
+        <v>45759</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B19" xr:uid="{1EA06F4F-72F6-4F21-A23E-D13EF2576099}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="C19" xr:uid="{CA5276C0-DEDC-4E02-A3A0-20173513E8E1}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/LH_REQUIREMENTS/LH-SIQ.xlsx
+++ b/LH_REQUIREMENTS/LH-SIQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACD12E-3622-4B84-918C-08D77052F4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACD6B7-BFF9-4B33-B046-D1C40C08C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -213,6 +213,36 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>Added questions about the login module and answers assumptions</t>
+  </si>
+  <si>
+    <t>LH-SIQ-018</t>
+  </si>
+  <si>
+    <t>LH-SIQ-019</t>
+  </si>
+  <si>
+    <t>LH-SIQ-020</t>
+  </si>
+  <si>
+    <t>LH-SIQ-021</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Should the user login using the username and password?</t>
+  </si>
+  <si>
+    <t>Should only registered users be able to login?</t>
+  </si>
+  <si>
+    <t>Should we store registrants passwords using Hashing and SALT?</t>
+  </si>
+  <si>
+    <t>Should there be a generic error message if the user enters wrong email or password or leaves any of them empty</t>
   </si>
 </sst>
 </file>
@@ -530,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E22">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature"/>
@@ -755,11 +785,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1080,15 +1110,80 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="D2:D19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="D2:D22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:C19" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:C22" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1102,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB6AEB-FB0F-423F-B9F5-E6539C732705}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1174,10 +1269,18 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="22">
+        <v>45760</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>

--- a/LH_REQUIREMENTS/LH-SIQ.xlsx
+++ b/LH_REQUIREMENTS/LH-SIQ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\pulled repo\Group-3-Learning-hub\LH_REQUIREMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACD6B7-BFF9-4B33-B046-D1C40C08C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -215,9 +214,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Added questions about the login module and answers assumptions</t>
-  </si>
-  <si>
     <t>LH-SIQ-018</t>
   </si>
   <si>
@@ -227,29 +223,60 @@
     <t>LH-SIQ-020</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Should users log in exclusively using their email and password</t>
+  </si>
+  <si>
+    <t>Should the system allow only registered users to login</t>
+  </si>
+  <si>
+    <t>Should all login errors (invalid password, empty fields, unregistered email) show 
+the same generic message (e.g., 'Invalid credentials</t>
+  </si>
+  <si>
+    <t>Should passwords be stored securely using hashing and salting</t>
+  </si>
+  <si>
     <t>LH-SIQ-021</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Should the user login using the username and password?</t>
-  </si>
-  <si>
-    <t>Should only registered users be able to login?</t>
-  </si>
-  <si>
-    <t>Should we store registrants passwords using Hashing and SALT?</t>
-  </si>
-  <si>
-    <t>Should there be a generic error message if the user enters wrong email or password or leaves any of them empty</t>
+    <t>Should all fields (email, username, password) be mandatory in the registration form</t>
+  </si>
+  <si>
+    <t>Should the username have specific constraints (e.g., 4-20 characters, no special symbols)</t>
+  </si>
+  <si>
+    <t>Should successful registration create exactly one user account (no duplicates)</t>
+  </si>
+  <si>
+    <t>Should the system auto-generate user IDs in a specific format</t>
+  </si>
+  <si>
+    <t>LH-SIQ-022</t>
+  </si>
+  <si>
+    <t>LH-SIQ-023</t>
+  </si>
+  <si>
+    <t>LH-SIQ-024</t>
+  </si>
+  <si>
+    <t>LH-SIQ-025</t>
+  </si>
+  <si>
+    <t>Ahmed Abuzaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add some questions about login , registration and ID constrain after creation SRS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -260,12 +287,8 @@
       <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="8"/>
@@ -279,6 +302,20 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -295,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,36 +387,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
@@ -395,46 +402,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,80 +419,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -542,10 +527,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Sheet3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle name="Sheet3-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -560,25 +545,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" headerRowDxfId="1">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Question"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Answer"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comments"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Feature"/>
+    <tableColumn id="3" name="Question"/>
+    <tableColumn id="4" name="Answer"/>
+    <tableColumn id="5" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="Sheet3-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9563CCC3-851B-453C-933D-17087BDF14C3}" name="Table16" displayName="Table16" ref="A1:D19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:D19" headerRowDxfId="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C89EB1EC-4C2E-4603-9648-9FD01BCB32E7}" name="Version number"/>
-    <tableColumn id="2" xr3:uid="{A294B132-8A15-431C-AEB5-4D6FD0930374}" name="Author"/>
-    <tableColumn id="4" xr3:uid="{3E3C5CEB-EBA5-4F13-AEF1-F4BAEA5407AE}" name="Updated section"/>
-    <tableColumn id="5" xr3:uid="{108D32EB-91AA-4ED5-8D1C-98D9C6F8BE4E}" name="Date"/>
+    <tableColumn id="1" name="Version number"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="4" name="Updated section"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="Sheet3-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -781,409 +766,445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="40.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="99.88671875" customWidth="1"/>
+    <col min="3" max="3" width="99.85546875" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="71.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="56.25">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="D2:D22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="D2:D26">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:C22" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C18 B2:B26"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1194,180 +1215,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB6AEB-FB0F-423F-B9F5-E6539C732705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="99.88671875" customWidth="1"/>
+    <col min="3" max="3" width="99.85546875" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="64.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="4">
         <v>45752</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="4">
         <v>45754</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="4">
         <v>45759</v>
       </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A5" s="1">
         <v>1.3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4">
         <v>45760</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="6" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="40.15" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="40.15" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="40.15" customHeight="1">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B19" xr:uid="{1EA06F4F-72F6-4F21-A23E-D13EF2576099}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="C19" xr:uid="{CA5276C0-DEDC-4E02-A3A0-20173513E8E1}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B19"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="C19">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/LH_REQUIREMENTS/LH-SIQ.xlsx
+++ b/LH_REQUIREMENTS/LH-SIQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\pulled repo\Group-3-Learning-hub\LH_REQUIREMENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Abuzaid\Downloads\qa_workshop_temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -214,6 +214,9 @@
     <t>1.2</t>
   </si>
   <si>
+    <t>Added questions about the login module and answers assumptions</t>
+  </si>
+  <si>
     <t>LH-SIQ-018</t>
   </si>
   <si>
@@ -223,60 +226,59 @@
     <t>LH-SIQ-020</t>
   </si>
   <si>
+    <t>LH-SIQ-021</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Should users log in exclusively using their email and password</t>
-  </si>
-  <si>
-    <t>Should the system allow only registered users to login</t>
-  </si>
-  <si>
-    <t>Should all login errors (invalid password, empty fields, unregistered email) show 
-the same generic message (e.g., 'Invalid credentials</t>
-  </si>
-  <si>
-    <t>Should passwords be stored securely using hashing and salting</t>
-  </si>
-  <si>
-    <t>LH-SIQ-021</t>
+    <t>Should the user login using the username and password?</t>
+  </si>
+  <si>
+    <t>Should only registered users be able to login?</t>
+  </si>
+  <si>
+    <t>Should we store registrants passwords using Hashing and SALT?</t>
+  </si>
+  <si>
+    <t>Should there be a generic error message if the user enters wrong email or password or leaves any of them empty</t>
+  </si>
+  <si>
+    <t>LH-SIQ-022</t>
   </si>
   <si>
     <t>Should all fields (email, username, password) be mandatory in the registration form</t>
   </si>
   <si>
+    <t>LH-SIQ-023</t>
+  </si>
+  <si>
     <t>Should the username have specific constraints (e.g., 4-20 characters, no special symbols)</t>
   </si>
   <si>
+    <t>LH-SIQ-024</t>
+  </si>
+  <si>
     <t>Should successful registration create exactly one user account (no duplicates)</t>
   </si>
   <si>
+    <t>LH-SIQ-025</t>
+  </si>
+  <si>
     <t>Should the system auto-generate user IDs in a specific format</t>
   </si>
   <si>
-    <t>LH-SIQ-022</t>
-  </si>
-  <si>
-    <t>LH-SIQ-023</t>
-  </si>
-  <si>
-    <t>LH-SIQ-024</t>
-  </si>
-  <si>
-    <t>LH-SIQ-025</t>
-  </si>
-  <si>
     <t>Ahmed Abuzaid</t>
   </si>
   <si>
-    <t xml:space="preserve">Add some questions about login , registration and ID constrain after creation SRS </t>
+    <t xml:space="preserve">Add some questions registration and ID constrain after creation SRS and modify SIQ template </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -297,11 +299,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="15"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -309,7 +317,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -317,8 +324,14 @@
       <color theme="0"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,12 +340,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF356854"/>
-        <bgColor rgb="FF356854"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -342,164 +367,393 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="15"/>
         <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="0"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -528,9 +782,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet3-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -545,20 +799,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" headerRowDxfId="8" totalsRowDxfId="5" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Feature"/>
-    <tableColumn id="3" name="Question"/>
-    <tableColumn id="4" name="Answer"/>
-    <tableColumn id="5" name="Comments"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Feature" dataDxfId="3"/>
+    <tableColumn id="3" name="Question" dataDxfId="2"/>
+    <tableColumn id="4" name="Answer" dataDxfId="1"/>
+    <tableColumn id="5" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet3-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:D19" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:D18">
   <tableColumns count="4">
     <tableColumn id="1" name="Version number"/>
     <tableColumn id="2" name="Author"/>
@@ -774,7 +1028,7 @@
   <sheetViews>
     <sheetView zoomScale="59" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="40.15" customHeight="1"/>
@@ -787,20 +1041,20 @@
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="40.15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -817,7 +1071,7 @@
       <c r="D2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -834,7 +1088,7 @@
       <c r="D3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -851,10 +1105,10 @@
       <c r="D4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="40.15" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -869,7 +1123,7 @@
       <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -886,7 +1140,7 @@
       <c r="D6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -903,7 +1157,7 @@
       <c r="D7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -911,7 +1165,7 @@
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -920,7 +1174,7 @@
       <c r="D8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -928,7 +1182,7 @@
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -937,7 +1191,7 @@
       <c r="D9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -945,7 +1199,7 @@
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -954,7 +1208,7 @@
       <c r="D10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -962,7 +1216,7 @@
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -971,7 +1225,7 @@
       <c r="D11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -979,7 +1233,7 @@
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -988,7 +1242,7 @@
       <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -996,7 +1250,7 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1005,7 +1259,7 @@
       <c r="D13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1013,7 +1267,7 @@
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1022,7 +1276,7 @@
       <c r="D14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1030,7 +1284,7 @@
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1039,7 +1293,7 @@
       <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1047,7 +1301,7 @@
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1056,7 +1310,7 @@
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1064,7 +1318,7 @@
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1073,7 +1327,7 @@
       <c r="D17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1081,7 +1335,7 @@
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1090,113 +1344,129 @@
       <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="40.15" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="40.15" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="40.15" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="56.25">
-      <c r="A21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="40.15" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="40.15" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="40.15" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="40.15" customHeight="1">
       <c r="A25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="40.15" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="C26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1204,7 +1474,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="D2:D26">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C18 B2:B26"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:C26"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1219,7 +1489,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -1227,19 +1497,19 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="99.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="64.140625" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -1247,148 +1517,159 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="23">
         <v>45752</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="26">
         <v>45754</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="26">
         <v>45759</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="21">
         <v>1.3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="26">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A6" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="31">
         <v>45760</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
     <row r="7" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="40.15" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="40.15" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="40.15" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="40.15" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B19"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="C19">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B18"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="C18">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/LH_REQUIREMENTS/LH-SIQ.xlsx
+++ b/LH_REQUIREMENTS/LH-SIQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Abuzaid\Downloads\qa_workshop_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\pulled repo\Group-3-Learning-hub\LH_REQUIREMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>ADMIN Constrain</t>
   </si>
   <si>
-    <t>Should the admin Features include deleting a user?</t>
-  </si>
-  <si>
     <t>Should the Max number of users on the Website be 50 users?</t>
   </si>
   <si>
@@ -235,43 +232,46 @@
     <t>Should the user login using the username and password?</t>
   </si>
   <si>
-    <t>Should only registered users be able to login?</t>
-  </si>
-  <si>
-    <t>Should we store registrants passwords using Hashing and SALT?</t>
-  </si>
-  <si>
-    <t>Should there be a generic error message if the user enters wrong email or password or leaves any of them empty</t>
-  </si>
-  <si>
     <t>LH-SIQ-022</t>
   </si>
   <si>
-    <t>Should all fields (email, username, password) be mandatory in the registration form</t>
-  </si>
-  <si>
     <t>LH-SIQ-023</t>
   </si>
   <si>
-    <t>Should the username have specific constraints (e.g., 4-20 characters, no special symbols)</t>
-  </si>
-  <si>
     <t>LH-SIQ-024</t>
   </si>
   <si>
-    <t>Should successful registration create exactly one user account (no duplicates)</t>
-  </si>
-  <si>
     <t>LH-SIQ-025</t>
   </si>
   <si>
-    <t>Should the system auto-generate user IDs in a specific format</t>
-  </si>
-  <si>
     <t>Ahmed Abuzaid</t>
   </si>
   <si>
     <t xml:space="preserve">Add some questions registration and ID constrain after creation SRS and modify SIQ template </t>
+  </si>
+  <si>
+    <t>Should the admin be able to remove a user from the system?</t>
+  </si>
+  <si>
+    <t>Should access to the system be restricted to users who have registered?</t>
+  </si>
+  <si>
+    <t>Should the system display a simple error message if login information is incorrect or incomplete?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should user passwords be stored securely using basic hashing methods? </t>
+  </si>
+  <si>
+    <t>Should the registration form require all fields (email, username, and password) to be filled out?</t>
+  </si>
+  <si>
+    <t>Should the username have specific constraints (e.g., 4-20 characters,only contain letters and numbers  no special symbols like(!,@,#,$&lt;%,^,etc))</t>
+  </si>
+  <si>
+    <t>Should the system prevent multiple registrations using the same email or username?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Should the system automatically assign user IDs in a simple, consistent format (e.g., U001, U002)?</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
@@ -1060,110 +1060,110 @@
     </row>
     <row r="2" spans="1:9" ht="40.15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40.15" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40.15" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="40.15" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40.15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>8</v>
@@ -1172,134 +1172,134 @@
         <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="40.15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="40.15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="40.15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="40.15" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="40.15" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>12</v>
@@ -1308,162 +1308,162 @@
         <v>13</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="40.15" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.15" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="40.15" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.15" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="40.15" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="40.15" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="40.15" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="40.15" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="40.15" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="40.15" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
@@ -1488,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1504,27 +1504,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="40.15" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.15" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="23">
         <v>45752</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="3" spans="1:8" ht="40.15" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="26">
         <v>45754</v>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="4" spans="1:8" ht="40.15" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="26">
         <v>45759</v>
@@ -1564,10 +1564,10 @@
         <v>1.3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="26">
         <v>45760</v>
@@ -1578,10 +1578,10 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" s="31">
         <v>45760</v>
